--- a/Table Formatted RANGES.xlsx
+++ b/Table Formatted RANGES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITJG104327\Desktop\jupyter_intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB320A86-5662-4F08-BD9F-40BFCFB326B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A53554-5F88-4B2B-BDBD-CC3EED3CE150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1680" windowWidth="29040" windowHeight="15840" xr2:uid="{6FCEA10D-2F5F-4A71-AC0A-FA7DB341DC09}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FCEA10D-2F5F-4A71-AC0A-FA7DB341DC09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="55">
   <si>
     <t>Metric</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>windSpeedAvgAnnual</t>
+  </si>
+  <si>
+    <t>temperatureAvgJan</t>
+  </si>
+  <si>
+    <t>waveMax*CMin*C</t>
+  </si>
+  <si>
+    <t>waveMax95Pct</t>
   </si>
 </sst>
 </file>
@@ -587,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E4712-311A-49F8-9DA7-CF474630F67A}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2083,6 +2092,216 @@
         <v>14</v>
       </c>
       <c r="D106" s="3">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D113" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="3">
+        <v>5</v>
+      </c>
+      <c r="D114" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>53</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="3">
+        <v>10</v>
+      </c>
+      <c r="D115" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="3">
+        <v>40</v>
+      </c>
+      <c r="D116" s="3">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>54</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1</v>
+      </c>
+      <c r="D118" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="3">
+        <v>5</v>
+      </c>
+      <c r="D119" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="3">
+        <v>10</v>
+      </c>
+      <c r="D120" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="3">
+        <v>15</v>
+      </c>
+      <c r="D121" s="3">
         <v>9999</v>
       </c>
     </row>
